--- a/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/CodeSystem-jp-procedure-codes-medical-cs.xlsx
+++ b/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/CodeSystem-jp-procedure-codes-medical-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Procedure Codes(Medical)</t>
+    <t>JP Core Procedure Codes Medical</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:40:28+00:00</t>
+    <t>2022-08-05T14:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Procedureで使用する処置のコード 医科診療行為マスタ</t>
+    <t>処置のコード:医科診療行為マスタ</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/CodeSystem-jp-procedure-codes-medical-cs.xlsx
+++ b/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/CodeSystem-jp-procedure-codes-medical-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T14:56:31+00:00</t>
+    <t>2022-08-06T09:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
